--- a/US_Names_Addresses.xlsx
+++ b/US_Names_Addresses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="18870" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="18870" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="US (2)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="2828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4509" uniqueCount="2829">
   <si>
     <t>first_name</t>
   </si>
@@ -8502,14 +8502,17 @@
     <t>407-413-4842</t>
   </si>
   <si>
-    <t>marked</t>
+    <t xml:space="preserve">marked </t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8524,6 +8527,17 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8553,10 +8567,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8841,23 +8858,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="4" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2827</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -8886,7 +8904,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="5" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -8912,6 +8933,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8938,6 +8962,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -8964,6 +8991,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -8990,6 +9020,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
@@ -9016,6 +9049,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
@@ -9042,6 +9078,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
@@ -9068,6 +9107,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
@@ -9094,6 +9136,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
@@ -9120,6 +9165,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
@@ -9146,6 +9194,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
@@ -9172,6 +9223,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>85</v>
       </c>
@@ -9198,6 +9252,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>92</v>
       </c>
@@ -9224,6 +9281,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>98</v>
       </c>
@@ -9250,6 +9310,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>104</v>
       </c>
@@ -9275,7 +9338,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>111</v>
       </c>
@@ -9301,7 +9367,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>118</v>
       </c>
@@ -9327,7 +9396,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>125</v>
       </c>
@@ -9353,7 +9425,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>132</v>
       </c>
@@ -9379,7 +9454,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>138</v>
       </c>
@@ -9405,7 +9483,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>144</v>
       </c>
@@ -9431,7 +9512,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>150</v>
       </c>
@@ -9457,7 +9541,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>154</v>
       </c>
@@ -9483,7 +9570,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>160</v>
       </c>
@@ -9509,7 +9599,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>166</v>
       </c>
@@ -9535,7 +9628,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>172</v>
       </c>
@@ -9561,7 +9657,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>178</v>
       </c>
@@ -9587,7 +9686,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>185</v>
       </c>
@@ -9613,7 +9715,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>191</v>
       </c>
@@ -9639,7 +9744,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>197</v>
       </c>
@@ -9665,7 +9773,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>203</v>
       </c>
@@ -9691,7 +9802,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>209</v>
       </c>
@@ -9717,7 +9831,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>216</v>
       </c>
@@ -9743,7 +9860,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>222</v>
       </c>
@@ -9769,7 +9889,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>228</v>
       </c>
@@ -9795,7 +9918,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>233</v>
       </c>
@@ -9821,7 +9947,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>239</v>
       </c>
@@ -9847,7 +9976,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>243</v>
       </c>
@@ -9873,7 +10005,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>249</v>
       </c>
@@ -9899,7 +10034,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>255</v>
       </c>
@@ -9925,7 +10063,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>261</v>
       </c>
@@ -9951,7 +10092,10 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>268</v>
       </c>
@@ -9977,7 +10121,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>274</v>
       </c>
@@ -10003,7 +10150,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>280</v>
       </c>
@@ -10029,7 +10179,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>287</v>
       </c>
@@ -10055,7 +10208,10 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>292</v>
       </c>
@@ -10081,7 +10237,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>299</v>
       </c>
@@ -10107,7 +10266,10 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>306</v>
       </c>
@@ -10133,7 +10295,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>311</v>
       </c>
@@ -10159,7 +10324,10 @@
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>317</v>
       </c>
@@ -10185,7 +10353,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>323</v>
       </c>
@@ -10211,7 +10382,10 @@
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>328</v>
       </c>
@@ -10237,7 +10411,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>334</v>
       </c>
@@ -10263,7 +10440,10 @@
         <v>340</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>341</v>
       </c>
@@ -10289,7 +10469,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>347</v>
       </c>
@@ -10315,7 +10498,10 @@
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>353</v>
       </c>
@@ -10341,7 +10527,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>359</v>
       </c>
@@ -10367,7 +10556,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>365</v>
       </c>
@@ -10393,7 +10585,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>371</v>
       </c>
@@ -10419,7 +10614,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>378</v>
       </c>
@@ -10445,7 +10643,10 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>384</v>
       </c>
@@ -10471,7 +10672,10 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>389</v>
       </c>
@@ -10497,7 +10701,10 @@
         <v>394</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>395</v>
       </c>
@@ -10523,7 +10730,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>401</v>
       </c>
@@ -10549,7 +10759,10 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B66" s="1" t="s">
         <v>408</v>
       </c>
@@ -10575,7 +10788,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>413</v>
       </c>
@@ -10601,7 +10817,10 @@
         <v>417</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>418</v>
       </c>
@@ -10627,7 +10846,10 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>423</v>
       </c>
@@ -10653,7 +10875,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>429</v>
       </c>
@@ -10679,7 +10904,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>435</v>
       </c>
@@ -10705,7 +10933,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>442</v>
       </c>
@@ -10731,7 +10962,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>448</v>
       </c>
@@ -10757,7 +10991,10 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>455</v>
       </c>
@@ -10783,7 +11020,10 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>461</v>
       </c>
@@ -10809,7 +11049,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>467</v>
       </c>
@@ -10835,7 +11078,10 @@
         <v>472</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>473</v>
       </c>
@@ -10861,7 +11107,10 @@
         <v>478</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>479</v>
       </c>
@@ -10887,7 +11136,10 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>484</v>
       </c>
@@ -10913,7 +11165,10 @@
         <v>489</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>490</v>
       </c>
@@ -10939,7 +11194,10 @@
         <v>494</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>495</v>
       </c>
@@ -10965,7 +11223,10 @@
         <v>499</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>500</v>
       </c>
@@ -10991,7 +11252,10 @@
         <v>505</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>506</v>
       </c>
@@ -11017,7 +11281,10 @@
         <v>511</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>512</v>
       </c>
@@ -11043,7 +11310,10 @@
         <v>517</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>518</v>
       </c>
@@ -11069,7 +11339,10 @@
         <v>523</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>524</v>
       </c>
@@ -11095,7 +11368,10 @@
         <v>529</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>530</v>
       </c>
@@ -11121,7 +11397,10 @@
         <v>535</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B88" s="1" t="s">
         <v>536</v>
       </c>
@@ -11147,7 +11426,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>542</v>
       </c>
@@ -11173,7 +11455,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>548</v>
       </c>
@@ -11199,7 +11484,10 @@
         <v>553</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>554</v>
       </c>
@@ -11225,7 +11513,10 @@
         <v>558</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>559</v>
       </c>
@@ -11251,7 +11542,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>565</v>
       </c>
@@ -11277,7 +11571,10 @@
         <v>570</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B94" s="1" t="s">
         <v>571</v>
       </c>
@@ -11303,7 +11600,10 @@
         <v>576</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>577</v>
       </c>
@@ -11329,7 +11629,10 @@
         <v>580</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>581</v>
       </c>
@@ -11355,7 +11658,10 @@
         <v>585</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>586</v>
       </c>
@@ -11381,7 +11687,10 @@
         <v>591</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B98" s="1" t="s">
         <v>592</v>
       </c>
@@ -11407,7 +11716,10 @@
         <v>598</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>599</v>
       </c>
@@ -11433,7 +11745,10 @@
         <v>605</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>606</v>
       </c>
@@ -11459,7 +11774,10 @@
         <v>612</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>613</v>
       </c>
@@ -11485,7 +11803,10 @@
         <v>617</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>618</v>
       </c>
@@ -11511,7 +11832,10 @@
         <v>623</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>624</v>
       </c>
@@ -11537,7 +11861,10 @@
         <v>627</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>628</v>
       </c>
@@ -11563,7 +11890,10 @@
         <v>634</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>635</v>
       </c>
@@ -11589,7 +11919,10 @@
         <v>640</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>641</v>
       </c>
@@ -11615,7 +11948,10 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>647</v>
       </c>
@@ -11641,7 +11977,10 @@
         <v>652</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B108" s="1" t="s">
         <v>653</v>
       </c>
@@ -11667,7 +12006,10 @@
         <v>658</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>659</v>
       </c>
@@ -11693,7 +12035,10 @@
         <v>664</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>665</v>
       </c>
@@ -11719,7 +12064,10 @@
         <v>670</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>671</v>
       </c>
@@ -11745,7 +12093,10 @@
         <v>675</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B112" s="1" t="s">
         <v>676</v>
       </c>
@@ -11771,7 +12122,10 @@
         <v>679</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B113" s="1" t="s">
         <v>680</v>
       </c>
@@ -11797,7 +12151,10 @@
         <v>685</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>686</v>
       </c>
@@ -11823,7 +12180,10 @@
         <v>689</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>690</v>
       </c>
@@ -11849,7 +12209,10 @@
         <v>695</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>696</v>
       </c>
@@ -11875,7 +12238,10 @@
         <v>701</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B117" s="1" t="s">
         <v>702</v>
       </c>
@@ -11901,7 +12267,10 @@
         <v>707</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B118" s="1" t="s">
         <v>708</v>
       </c>
@@ -11927,7 +12296,10 @@
         <v>713</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>714</v>
       </c>
@@ -11953,7 +12325,10 @@
         <v>718</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B120" s="1" t="s">
         <v>719</v>
       </c>
@@ -11979,7 +12354,10 @@
         <v>724</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B121" s="1" t="s">
         <v>725</v>
       </c>
@@ -12005,7 +12383,10 @@
         <v>729</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>730</v>
       </c>
@@ -12031,7 +12412,10 @@
         <v>735</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B123" s="1" t="s">
         <v>736</v>
       </c>
@@ -12057,7 +12441,10 @@
         <v>741</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B124" s="1" t="s">
         <v>742</v>
       </c>
@@ -12083,7 +12470,10 @@
         <v>747</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B125" s="1" t="s">
         <v>748</v>
       </c>
@@ -12109,7 +12499,10 @@
         <v>753</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B126" s="1" t="s">
         <v>754</v>
       </c>
@@ -12135,7 +12528,10 @@
         <v>759</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B127" s="1" t="s">
         <v>760</v>
       </c>
@@ -12161,7 +12557,10 @@
         <v>765</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B128" s="1" t="s">
         <v>766</v>
       </c>
@@ -12187,7 +12586,10 @@
         <v>771</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B129" s="1" t="s">
         <v>772</v>
       </c>
@@ -12213,7 +12615,10 @@
         <v>777</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B130" s="1" t="s">
         <v>778</v>
       </c>
@@ -12239,7 +12644,10 @@
         <v>783</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B131" s="1" t="s">
         <v>784</v>
       </c>
@@ -12265,7 +12673,10 @@
         <v>789</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B132" s="1" t="s">
         <v>790</v>
       </c>
@@ -12291,7 +12702,10 @@
         <v>795</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B133" s="1" t="s">
         <v>796</v>
       </c>
@@ -12317,7 +12731,10 @@
         <v>801</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B134" s="1" t="s">
         <v>802</v>
       </c>
@@ -12343,7 +12760,10 @@
         <v>807</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B135" s="1" t="s">
         <v>808</v>
       </c>
@@ -12369,7 +12789,10 @@
         <v>813</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B136" s="1" t="s">
         <v>814</v>
       </c>
@@ -12395,7 +12818,10 @@
         <v>819</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B137" s="1" t="s">
         <v>820</v>
       </c>
@@ -12421,7 +12847,10 @@
         <v>825</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B138" s="1" t="s">
         <v>826</v>
       </c>
@@ -12447,7 +12876,10 @@
         <v>830</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B139" s="1" t="s">
         <v>831</v>
       </c>
@@ -12473,7 +12905,10 @@
         <v>835</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B140" s="1" t="s">
         <v>836</v>
       </c>
@@ -12499,7 +12934,10 @@
         <v>841</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B141" s="1" t="s">
         <v>842</v>
       </c>
@@ -12525,7 +12963,10 @@
         <v>846</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B142" s="1" t="s">
         <v>847</v>
       </c>
@@ -12551,7 +12992,10 @@
         <v>852</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B143" s="1" t="s">
         <v>853</v>
       </c>
@@ -12577,7 +13021,10 @@
         <v>858</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B144" s="1" t="s">
         <v>859</v>
       </c>
@@ -12603,7 +13050,10 @@
         <v>863</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B145" s="1" t="s">
         <v>864</v>
       </c>
@@ -12629,7 +13079,10 @@
         <v>869</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B146" s="1" t="s">
         <v>870</v>
       </c>
@@ -12655,7 +13108,10 @@
         <v>874</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B147" s="1" t="s">
         <v>875</v>
       </c>
@@ -12681,7 +13137,10 @@
         <v>880</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B148" s="1" t="s">
         <v>881</v>
       </c>
@@ -12707,7 +13166,10 @@
         <v>885</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B149" s="1" t="s">
         <v>886</v>
       </c>
@@ -12733,7 +13195,10 @@
         <v>891</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B150" s="1" t="s">
         <v>892</v>
       </c>
@@ -12759,7 +13224,10 @@
         <v>897</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B151" s="1" t="s">
         <v>898</v>
       </c>
@@ -12785,7 +13253,10 @@
         <v>903</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B152" s="1" t="s">
         <v>904</v>
       </c>
@@ -12811,7 +13282,10 @@
         <v>909</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B153" s="1" t="s">
         <v>910</v>
       </c>
@@ -12837,7 +13311,10 @@
         <v>915</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B154" s="1" t="s">
         <v>916</v>
       </c>
@@ -12863,7 +13340,10 @@
         <v>921</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B155" s="1" t="s">
         <v>922</v>
       </c>
@@ -12889,7 +13369,10 @@
         <v>926</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B156" s="1" t="s">
         <v>927</v>
       </c>
@@ -12915,7 +13398,10 @@
         <v>931</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B157" s="1" t="s">
         <v>932</v>
       </c>
@@ -12941,7 +13427,10 @@
         <v>936</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B158" s="1" t="s">
         <v>937</v>
       </c>
@@ -12967,7 +13456,10 @@
         <v>942</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B159" s="1" t="s">
         <v>943</v>
       </c>
@@ -12993,7 +13485,10 @@
         <v>948</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B160" s="1" t="s">
         <v>949</v>
       </c>
@@ -13019,7 +13514,10 @@
         <v>954</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B161" s="1" t="s">
         <v>955</v>
       </c>
@@ -13045,7 +13543,10 @@
         <v>961</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B162" s="1" t="s">
         <v>962</v>
       </c>
@@ -13071,7 +13572,10 @@
         <v>967</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B163" s="1" t="s">
         <v>968</v>
       </c>
@@ -13097,7 +13601,10 @@
         <v>972</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B164" s="1" t="s">
         <v>973</v>
       </c>
@@ -13123,7 +13630,10 @@
         <v>978</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B165" s="1" t="s">
         <v>979</v>
       </c>
@@ -13149,7 +13659,10 @@
         <v>984</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B166" s="1" t="s">
         <v>985</v>
       </c>
@@ -13175,7 +13688,10 @@
         <v>990</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B167" s="1" t="s">
         <v>991</v>
       </c>
@@ -13201,7 +13717,10 @@
         <v>995</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B168" s="1" t="s">
         <v>996</v>
       </c>
@@ -13227,7 +13746,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B169" s="1" t="s">
         <v>1002</v>
       </c>
@@ -13253,7 +13775,10 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B170" s="1" t="s">
         <v>1007</v>
       </c>
@@ -13279,7 +13804,10 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B171" s="1" t="s">
         <v>1013</v>
       </c>
@@ -13305,7 +13833,10 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B172" s="1" t="s">
         <v>1020</v>
       </c>
@@ -13331,7 +13862,10 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B173" s="1" t="s">
         <v>1026</v>
       </c>
@@ -13357,7 +13891,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B174" s="1" t="s">
         <v>1032</v>
       </c>
@@ -13383,7 +13920,10 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B175" s="1" t="s">
         <v>1038</v>
       </c>
@@ -13409,7 +13949,10 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B176" s="1" t="s">
         <v>1044</v>
       </c>
@@ -13435,7 +13978,10 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B177" s="1" t="s">
         <v>1050</v>
       </c>
@@ -13461,7 +14007,10 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B178" s="1" t="s">
         <v>1054</v>
       </c>
@@ -13487,7 +14036,10 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B179" s="1" t="s">
         <v>1060</v>
       </c>
@@ -13513,7 +14065,10 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B180" s="1" t="s">
         <v>536</v>
       </c>
@@ -13539,7 +14094,10 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B181" s="1" t="s">
         <v>1068</v>
       </c>
@@ -13565,7 +14123,10 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B182" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13591,7 +14152,10 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B183" s="1" t="s">
         <v>1080</v>
       </c>
@@ -13617,7 +14181,10 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B184" s="1" t="s">
         <v>1085</v>
       </c>
@@ -13643,7 +14210,10 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B185" s="1" t="s">
         <v>1091</v>
       </c>
@@ -13669,7 +14239,10 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B186" s="1" t="s">
         <v>1097</v>
       </c>
@@ -13695,7 +14268,10 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B187" s="1" t="s">
         <v>1102</v>
       </c>
@@ -13721,7 +14297,10 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B188" s="1" t="s">
         <v>1108</v>
       </c>
@@ -13747,7 +14326,10 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B189" s="1" t="s">
         <v>1114</v>
       </c>
@@ -13773,7 +14355,10 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B190" s="1" t="s">
         <v>1120</v>
       </c>
@@ -13799,7 +14384,10 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B191" s="1" t="s">
         <v>1126</v>
       </c>
@@ -13825,7 +14413,10 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B192" s="1" t="s">
         <v>1132</v>
       </c>
@@ -13851,7 +14442,10 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B193" s="1" t="s">
         <v>1138</v>
       </c>
@@ -13877,7 +14471,10 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B194" s="1" t="s">
         <v>1144</v>
       </c>
@@ -13903,7 +14500,10 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B195" s="1" t="s">
         <v>1148</v>
       </c>
@@ -13929,7 +14529,10 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B196" s="1" t="s">
         <v>1154</v>
       </c>
@@ -13955,7 +14558,10 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B197" s="1" t="s">
         <v>1160</v>
       </c>
@@ -13981,7 +14587,10 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B198" s="1" t="s">
         <v>1166</v>
       </c>
@@ -14007,7 +14616,10 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B199" s="1" t="s">
         <v>1172</v>
       </c>
@@ -14033,7 +14645,10 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B200" s="1" t="s">
         <v>1178</v>
       </c>
@@ -14059,7 +14674,10 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B201" s="1" t="s">
         <v>1183</v>
       </c>
@@ -14085,7 +14703,10 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B202" s="1" t="s">
         <v>1190</v>
       </c>
@@ -14111,7 +14732,10 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B203" s="1" t="s">
         <v>1196</v>
       </c>
@@ -14137,7 +14761,10 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B204" s="1" t="s">
         <v>1202</v>
       </c>
@@ -14163,7 +14790,10 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B205" s="1" t="s">
         <v>1208</v>
       </c>
@@ -14189,7 +14819,10 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B206" s="1" t="s">
         <v>1213</v>
       </c>
@@ -14215,7 +14848,10 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B207" s="1" t="s">
         <v>1218</v>
       </c>
@@ -14241,7 +14877,10 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B208" s="1" t="s">
         <v>1224</v>
       </c>
@@ -14267,7 +14906,10 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B209" s="1" t="s">
         <v>1229</v>
       </c>
@@ -14293,7 +14935,10 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B210" s="1" t="s">
         <v>1233</v>
       </c>
@@ -14319,7 +14964,10 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B211" s="1" t="s">
         <v>1239</v>
       </c>
@@ -14345,7 +14993,10 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B212" s="1" t="s">
         <v>1245</v>
       </c>
@@ -14371,7 +15022,10 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B213" s="1" t="s">
         <v>1249</v>
       </c>
@@ -14397,7 +15051,10 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B214" s="1" t="s">
         <v>1255</v>
       </c>
@@ -14423,7 +15080,10 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B215" s="1" t="s">
         <v>1261</v>
       </c>
@@ -14449,7 +15109,10 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B216" s="1" t="s">
         <v>1266</v>
       </c>
@@ -14475,7 +15138,10 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B217" s="1" t="s">
         <v>1271</v>
       </c>
@@ -14501,7 +15167,10 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B218" s="1" t="s">
         <v>1278</v>
       </c>
@@ -14527,7 +15196,10 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B219" s="1" t="s">
         <v>1284</v>
       </c>
@@ -14553,7 +15225,10 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B220" s="1" t="s">
         <v>1289</v>
       </c>
@@ -14579,7 +15254,10 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B221" s="1" t="s">
         <v>1293</v>
       </c>
@@ -14605,7 +15283,10 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B222" s="1" t="s">
         <v>1299</v>
       </c>
@@ -14631,7 +15312,10 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B223" s="1" t="s">
         <v>1305</v>
       </c>
@@ -14657,7 +15341,10 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B224" s="1" t="s">
         <v>1311</v>
       </c>
@@ -14683,7 +15370,10 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B225" s="1" t="s">
         <v>1317</v>
       </c>
@@ -14709,7 +15399,10 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B226" s="1" t="s">
         <v>1321</v>
       </c>
@@ -14735,7 +15428,10 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B227" s="1" t="s">
         <v>1326</v>
       </c>
@@ -14761,7 +15457,10 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B228" s="1" t="s">
         <v>1332</v>
       </c>
@@ -14787,7 +15486,10 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B229" s="1" t="s">
         <v>1338</v>
       </c>
@@ -14813,7 +15515,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B230" s="1" t="s">
         <v>1342</v>
       </c>
@@ -14839,7 +15544,10 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B231" s="1" t="s">
         <v>1349</v>
       </c>
@@ -14865,7 +15573,10 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B232" s="1" t="s">
         <v>1354</v>
       </c>
@@ -14891,7 +15602,10 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B233" s="1" t="s">
         <v>1359</v>
       </c>
@@ -14917,7 +15631,10 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B234" s="1" t="s">
         <v>1365</v>
       </c>
@@ -14943,7 +15660,10 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B235" s="1" t="s">
         <v>1371</v>
       </c>
@@ -14969,7 +15689,10 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B236" s="1" t="s">
         <v>1377</v>
       </c>
@@ -14995,7 +15718,10 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B237" s="1" t="s">
         <v>1383</v>
       </c>
@@ -15021,7 +15747,10 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B238" s="1" t="s">
         <v>1390</v>
       </c>
@@ -15047,7 +15776,10 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B239" s="1" t="s">
         <v>1396</v>
       </c>
@@ -15073,7 +15805,10 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B240" s="1" t="s">
         <v>1402</v>
       </c>
@@ -15099,7 +15834,10 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B241" s="1" t="s">
         <v>1408</v>
       </c>
@@ -15125,7 +15863,10 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B242" s="1" t="s">
         <v>1414</v>
       </c>
@@ -15151,7 +15892,10 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B243" s="1" t="s">
         <v>1420</v>
       </c>
@@ -15177,7 +15921,10 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B244" s="1" t="s">
         <v>1425</v>
       </c>
@@ -15203,7 +15950,10 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B245" s="1" t="s">
         <v>1431</v>
       </c>
@@ -15229,7 +15979,10 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B246" s="1" t="s">
         <v>1437</v>
       </c>
@@ -15255,7 +16008,10 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B247" s="1" t="s">
         <v>1443</v>
       </c>
@@ -15281,7 +16037,10 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B248" s="1" t="s">
         <v>1449</v>
       </c>
@@ -15307,7 +16066,10 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B249" s="1" t="s">
         <v>1455</v>
       </c>
@@ -15333,7 +16095,10 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B250" s="1" t="s">
         <v>1461</v>
       </c>
@@ -15359,7 +16124,10 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B251" s="1" t="s">
         <v>1465</v>
       </c>
@@ -15385,7 +16153,10 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B252" s="1" t="s">
         <v>1469</v>
       </c>
@@ -15411,7 +16182,10 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B253" s="1" t="s">
         <v>1475</v>
       </c>
@@ -15437,7 +16211,10 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B254" s="1" t="s">
         <v>1482</v>
       </c>
@@ -15463,7 +16240,10 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B255" s="1" t="s">
         <v>1488</v>
       </c>
@@ -15489,7 +16269,10 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B256" s="1" t="s">
         <v>1494</v>
       </c>
@@ -15515,7 +16298,10 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B257" s="1" t="s">
         <v>1499</v>
       </c>
@@ -15541,7 +16327,10 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B258" s="1" t="s">
         <v>1505</v>
       </c>
@@ -15567,7 +16356,10 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B259" s="1" t="s">
         <v>1511</v>
       </c>
@@ -15593,7 +16385,10 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B260" s="1" t="s">
         <v>1517</v>
       </c>
@@ -15619,7 +16414,10 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B261" s="1" t="s">
         <v>1522</v>
       </c>
@@ -15645,7 +16443,10 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B262" s="1" t="s">
         <v>1528</v>
       </c>
@@ -15671,7 +16472,10 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B263" s="1" t="s">
         <v>1532</v>
       </c>
@@ -15697,7 +16501,10 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B264" s="1" t="s">
         <v>1537</v>
       </c>
@@ -15723,7 +16530,10 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B265" s="1" t="s">
         <v>1543</v>
       </c>
@@ -15749,7 +16559,10 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B266" s="1" t="s">
         <v>696</v>
       </c>
@@ -15775,7 +16588,10 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B267" s="1" t="s">
         <v>1553</v>
       </c>
@@ -15801,7 +16617,10 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B268" s="1" t="s">
         <v>1558</v>
       </c>
@@ -15827,7 +16646,10 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B269" s="1" t="s">
         <v>1564</v>
       </c>
@@ -15853,7 +16675,10 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B270" s="1" t="s">
         <v>1570</v>
       </c>
@@ -15879,7 +16704,10 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B271" s="1" t="s">
         <v>1577</v>
       </c>
@@ -15905,7 +16733,10 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B272" s="1" t="s">
         <v>1583</v>
       </c>
@@ -15931,7 +16762,10 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B273" s="1" t="s">
         <v>1588</v>
       </c>
@@ -15957,7 +16791,10 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B274" s="1" t="s">
         <v>1594</v>
       </c>
@@ -15983,7 +16820,10 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B275" s="1" t="s">
         <v>1600</v>
       </c>
@@ -16009,7 +16849,10 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B276" s="1" t="s">
         <v>1605</v>
       </c>
@@ -16035,7 +16878,10 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B277" s="1" t="s">
         <v>1611</v>
       </c>
@@ -16061,7 +16907,10 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B278" s="1" t="s">
         <v>1617</v>
       </c>
@@ -16087,7 +16936,10 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B279" s="1" t="s">
         <v>1623</v>
       </c>
@@ -16113,7 +16965,10 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B280" s="1" t="s">
         <v>1628</v>
       </c>
@@ -16139,7 +16994,10 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B281" s="1" t="s">
         <v>1634</v>
       </c>
@@ -16165,7 +17023,10 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B282" s="1" t="s">
         <v>1640</v>
       </c>
@@ -16191,7 +17052,10 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B283" s="1" t="s">
         <v>1646</v>
       </c>
@@ -16217,7 +17081,10 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B284" s="1" t="s">
         <v>1651</v>
       </c>
@@ -16243,7 +17110,10 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B285" s="1" t="s">
         <v>1656</v>
       </c>
@@ -16269,7 +17139,10 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B286" s="1" t="s">
         <v>1662</v>
       </c>
@@ -16295,7 +17168,10 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B287" s="1" t="s">
         <v>1085</v>
       </c>
@@ -16321,7 +17197,10 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B288" s="1" t="s">
         <v>1674</v>
       </c>
@@ -16347,7 +17226,10 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B289" s="1" t="s">
         <v>1680</v>
       </c>
@@ -16373,7 +17255,10 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B290" s="1" t="s">
         <v>1684</v>
       </c>
@@ -16399,7 +17284,10 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B291" s="1" t="s">
         <v>1690</v>
       </c>
@@ -16425,7 +17313,10 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B292" s="1" t="s">
         <v>1695</v>
       </c>
@@ -16451,7 +17342,10 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B293" s="1" t="s">
         <v>1701</v>
       </c>
@@ -16477,7 +17371,10 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B294" s="1" t="s">
         <v>1706</v>
       </c>
@@ -16503,7 +17400,10 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B295" s="1" t="s">
         <v>1712</v>
       </c>
@@ -16529,7 +17429,10 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B296" s="1" t="s">
         <v>1718</v>
       </c>
@@ -16555,7 +17458,10 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B297" s="1" t="s">
         <v>1722</v>
       </c>
@@ -16581,7 +17487,10 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B298" s="1" t="s">
         <v>1728</v>
       </c>
@@ -16607,7 +17516,10 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B299" s="1" t="s">
         <v>1734</v>
       </c>
@@ -16633,7 +17545,10 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B300" s="1" t="s">
         <v>1739</v>
       </c>
@@ -16659,7 +17574,10 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B301" s="1" t="s">
         <v>1744</v>
       </c>
@@ -16685,7 +17603,10 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B302" s="1" t="s">
         <v>1750</v>
       </c>
@@ -16711,7 +17632,10 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B303" s="1" t="s">
         <v>1756</v>
       </c>
@@ -16737,7 +17661,10 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B304" s="1" t="s">
         <v>1761</v>
       </c>
@@ -16763,7 +17690,10 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B305" s="1" t="s">
         <v>1765</v>
       </c>
@@ -16789,7 +17719,10 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B306" s="1" t="s">
         <v>1771</v>
       </c>
@@ -16815,7 +17748,10 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B307" s="1" t="s">
         <v>1777</v>
       </c>
@@ -16841,7 +17777,10 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B308" s="1" t="s">
         <v>1782</v>
       </c>
@@ -16867,7 +17806,10 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B309" s="1" t="s">
         <v>1786</v>
       </c>
@@ -16893,7 +17835,10 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B310" s="1" t="s">
         <v>1792</v>
       </c>
@@ -16919,7 +17864,10 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="311" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B311" s="1" t="s">
         <v>1798</v>
       </c>
@@ -16945,7 +17893,10 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="312" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B312" s="1" t="s">
         <v>1803</v>
       </c>
@@ -16971,7 +17922,10 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="313" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B313" s="1" t="s">
         <v>1810</v>
       </c>
@@ -16997,7 +17951,10 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="314" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B314" s="1" t="s">
         <v>1816</v>
       </c>
@@ -17023,7 +17980,10 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="315" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B315" s="1" t="s">
         <v>1822</v>
       </c>
@@ -17049,7 +18009,10 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="316" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B316" s="1" t="s">
         <v>1828</v>
       </c>
@@ -17075,7 +18038,10 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="317" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B317" s="1" t="s">
         <v>1833</v>
       </c>
@@ -17101,7 +18067,10 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="318" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B318" s="1" t="s">
         <v>1839</v>
       </c>
@@ -17127,7 +18096,10 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="319" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B319" s="1" t="s">
         <v>1844</v>
       </c>
@@ -17153,7 +18125,10 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="320" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B320" s="1" t="s">
         <v>1849</v>
       </c>
@@ -17179,7 +18154,10 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="321" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B321" s="1" t="s">
         <v>1855</v>
       </c>
@@ -17205,7 +18183,10 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="322" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B322" s="1" t="s">
         <v>1861</v>
       </c>
@@ -17231,7 +18212,10 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="323" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B323" s="1" t="s">
         <v>1867</v>
       </c>
@@ -17257,7 +18241,10 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="324" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B324" s="1" t="s">
         <v>1871</v>
       </c>
@@ -17283,7 +18270,10 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="325" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B325" s="1" t="s">
         <v>1875</v>
       </c>
@@ -17309,7 +18299,10 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="326" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B326" s="1" t="s">
         <v>1354</v>
       </c>
@@ -17335,7 +18328,10 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="327" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B327" s="1" t="s">
         <v>1885</v>
       </c>
@@ -17361,7 +18357,10 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="328" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B328" s="1" t="s">
         <v>1889</v>
       </c>
@@ -17387,7 +18386,10 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="329" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B329" s="1" t="s">
         <v>1577</v>
       </c>
@@ -17413,7 +18415,10 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="330" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B330" s="1" t="s">
         <v>57</v>
       </c>
@@ -17439,7 +18444,10 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="331" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B331" s="1" t="s">
         <v>1902</v>
       </c>
@@ -17465,7 +18473,10 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="332" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B332" s="1" t="s">
         <v>1908</v>
       </c>
@@ -17491,7 +18502,10 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="333" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B333" s="1" t="s">
         <v>1914</v>
       </c>
@@ -17517,7 +18531,10 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="334" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B334" s="1" t="s">
         <v>1920</v>
       </c>
@@ -17543,7 +18560,10 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="335" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B335" s="1" t="s">
         <v>1926</v>
       </c>
@@ -17569,7 +18589,10 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="336" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B336" s="1" t="s">
         <v>1932</v>
       </c>
@@ -17595,7 +18618,10 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="337" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B337" s="1" t="s">
         <v>1936</v>
       </c>
@@ -17621,7 +18647,10 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="338" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B338" s="1" t="s">
         <v>1942</v>
       </c>
@@ -17647,7 +18676,10 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="339" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B339" s="1" t="s">
         <v>1948</v>
       </c>
@@ -17673,7 +18705,10 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="340" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B340" s="1" t="s">
         <v>1954</v>
       </c>
@@ -17699,7 +18734,10 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="341" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B341" s="1" t="s">
         <v>1959</v>
       </c>
@@ -17725,7 +18763,10 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="342" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B342" s="1" t="s">
         <v>1965</v>
       </c>
@@ -17751,7 +18792,10 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="343" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B343" s="1" t="s">
         <v>1970</v>
       </c>
@@ -17777,7 +18821,10 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="344" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B344" s="1" t="s">
         <v>1976</v>
       </c>
@@ -17803,7 +18850,10 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="345" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B345" s="1" t="s">
         <v>1982</v>
       </c>
@@ -17829,7 +18879,10 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="346" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B346" s="1" t="s">
         <v>1986</v>
       </c>
@@ -17855,7 +18908,10 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="347" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B347" s="1" t="s">
         <v>1992</v>
       </c>
@@ -17881,7 +18937,10 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="348" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B348" s="1" t="s">
         <v>1997</v>
       </c>
@@ -17907,7 +18966,10 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="349" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B349" s="1" t="s">
         <v>2003</v>
       </c>
@@ -17933,7 +18995,10 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="350" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B350" s="1" t="s">
         <v>2009</v>
       </c>
@@ -17959,7 +19024,10 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="351" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B351" s="1" t="s">
         <v>2015</v>
       </c>
@@ -17985,7 +19053,10 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="352" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B352" s="1" t="s">
         <v>2020</v>
       </c>
@@ -18011,7 +19082,10 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="353" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B353" s="1" t="s">
         <v>2026</v>
       </c>
@@ -18037,7 +19111,10 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="354" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B354" s="1" t="s">
         <v>2032</v>
       </c>
@@ -18063,7 +19140,10 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="355" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B355" s="1" t="s">
         <v>2037</v>
       </c>
@@ -18089,7 +19169,10 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="356" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B356" s="1" t="s">
         <v>2042</v>
       </c>
@@ -18115,7 +19198,10 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="357" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B357" s="1" t="s">
         <v>2047</v>
       </c>
@@ -18141,7 +19227,10 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="358" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B358" s="1" t="s">
         <v>2052</v>
       </c>
@@ -18167,7 +19256,10 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="359" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B359" s="1" t="s">
         <v>2058</v>
       </c>
@@ -18193,7 +19285,10 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="360" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B360" s="1" t="s">
         <v>2062</v>
       </c>
@@ -18219,7 +19314,10 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="361" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B361" s="1" t="s">
         <v>2068</v>
       </c>
@@ -18245,7 +19343,10 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="362" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B362" s="1" t="s">
         <v>2074</v>
       </c>
@@ -18271,7 +19372,10 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="363" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B363" s="1" t="s">
         <v>2079</v>
       </c>
@@ -18297,7 +19401,10 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="364" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B364" s="1" t="s">
         <v>2083</v>
       </c>
@@ -18323,7 +19430,10 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="365" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B365" s="1" t="s">
         <v>2089</v>
       </c>
@@ -18349,7 +19459,10 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="366" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B366" s="1" t="s">
         <v>2095</v>
       </c>
@@ -18375,7 +19488,10 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="367" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B367" s="1" t="s">
         <v>2101</v>
       </c>
@@ -18401,7 +19517,10 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="368" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B368" s="1" t="s">
         <v>2107</v>
       </c>
@@ -18427,7 +19546,10 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="369" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B369" s="1" t="s">
         <v>2112</v>
       </c>
@@ -18453,7 +19575,10 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="370" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B370" s="1" t="s">
         <v>2118</v>
       </c>
@@ -18479,7 +19604,10 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="371" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B371" s="1" t="s">
         <v>2122</v>
       </c>
@@ -18505,7 +19633,10 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="372" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B372" s="1" t="s">
         <v>2127</v>
       </c>
@@ -18531,7 +19662,10 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="373" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B373" s="1" t="s">
         <v>2133</v>
       </c>
@@ -18557,7 +19691,10 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="374" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B374" s="1" t="s">
         <v>2138</v>
       </c>
@@ -18583,7 +19720,10 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="375" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B375" s="1" t="s">
         <v>2144</v>
       </c>
@@ -18609,7 +19749,10 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="376" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B376" s="1" t="s">
         <v>2150</v>
       </c>
@@ -18635,7 +19778,10 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="377" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B377" s="1" t="s">
         <v>2156</v>
       </c>
@@ -18661,7 +19807,10 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="378" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B378" s="1" t="s">
         <v>2162</v>
       </c>
@@ -18687,7 +19836,10 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="379" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B379" s="1" t="s">
         <v>2168</v>
       </c>
@@ -18713,7 +19865,10 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="380" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B380" s="1" t="s">
         <v>2173</v>
       </c>
@@ -18739,7 +19894,10 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="381" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B381" s="1" t="s">
         <v>2177</v>
       </c>
@@ -18765,7 +19923,10 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="382" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B382" s="1" t="s">
         <v>287</v>
       </c>
@@ -18791,7 +19952,10 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="383" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B383" s="1" t="s">
         <v>2185</v>
       </c>
@@ -18817,7 +19981,10 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="384" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B384" s="1" t="s">
         <v>50</v>
       </c>
@@ -18843,7 +20010,10 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="385" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B385" s="1" t="s">
         <v>2196</v>
       </c>
@@ -18869,7 +20039,10 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="386" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B386" s="1" t="s">
         <v>2202</v>
       </c>
@@ -18895,7 +20068,10 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="387" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B387" s="1" t="s">
         <v>2208</v>
       </c>
@@ -18921,7 +20097,10 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="388" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B388" s="1" t="s">
         <v>2214</v>
       </c>
@@ -18947,7 +20126,10 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="389" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B389" s="1" t="s">
         <v>1570</v>
       </c>
@@ -18973,7 +20155,10 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="390" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B390" s="1" t="s">
         <v>2222</v>
       </c>
@@ -18999,7 +20184,10 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="391" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B391" s="1" t="s">
         <v>2227</v>
       </c>
@@ -19025,7 +20213,10 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="392" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B392" s="1" t="s">
         <v>2231</v>
       </c>
@@ -19051,7 +20242,10 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="393" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B393" s="1" t="s">
         <v>2238</v>
       </c>
@@ -19077,7 +20271,10 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="394" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B394" s="1" t="s">
         <v>30</v>
       </c>
@@ -19103,7 +20300,10 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="395" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B395" s="1" t="s">
         <v>479</v>
       </c>
@@ -19129,7 +20329,10 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="396" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B396" s="1" t="s">
         <v>2254</v>
       </c>
@@ -19155,7 +20358,10 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="397" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B397" s="1" t="s">
         <v>2260</v>
       </c>
@@ -19181,7 +20387,10 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="398" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B398" s="1" t="s">
         <v>2266</v>
       </c>
@@ -19207,7 +20416,10 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="399" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B399" s="1" t="s">
         <v>2272</v>
       </c>
@@ -19233,7 +20445,10 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="400" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B400" s="1" t="s">
         <v>2277</v>
       </c>
@@ -19259,7 +20474,10 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="401" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B401" s="1" t="s">
         <v>2284</v>
       </c>
@@ -19285,7 +20503,10 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="402" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B402" s="1" t="s">
         <v>2289</v>
       </c>
@@ -19311,7 +20532,10 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="403" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B403" s="1" t="s">
         <v>2293</v>
       </c>
@@ -19337,7 +20561,10 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="404" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B404" s="1" t="s">
         <v>2299</v>
       </c>
@@ -19363,7 +20590,10 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="405" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B405" s="1" t="s">
         <v>2303</v>
       </c>
@@ -19389,7 +20619,10 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="406" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B406" s="1" t="s">
         <v>2308</v>
       </c>
@@ -19415,7 +20648,10 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="407" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B407" s="1" t="s">
         <v>2314</v>
       </c>
@@ -19441,7 +20677,10 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="408" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B408" s="1" t="s">
         <v>2320</v>
       </c>
@@ -19467,7 +20706,10 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="409" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B409" s="1" t="s">
         <v>2326</v>
       </c>
@@ -19493,7 +20735,10 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="410" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B410" s="1" t="s">
         <v>2332</v>
       </c>
@@ -19519,7 +20764,10 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="411" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B411" s="1" t="s">
         <v>2338</v>
       </c>
@@ -19545,7 +20793,10 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="412" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B412" s="1" t="s">
         <v>2343</v>
       </c>
@@ -19571,7 +20822,10 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="413" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B413" s="1" t="s">
         <v>2348</v>
       </c>
@@ -19597,7 +20851,10 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="414" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B414" s="1" t="s">
         <v>2352</v>
       </c>
@@ -19623,7 +20880,10 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="415" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B415" s="1" t="s">
         <v>2358</v>
       </c>
@@ -19649,7 +20909,10 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="416" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B416" s="1" t="s">
         <v>2363</v>
       </c>
@@ -19675,7 +20938,10 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="417" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B417" s="1" t="s">
         <v>2369</v>
       </c>
@@ -19701,7 +20967,10 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="418" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B418" s="1" t="s">
         <v>2373</v>
       </c>
@@ -19727,7 +20996,10 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="419" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B419" s="1" t="s">
         <v>2378</v>
       </c>
@@ -19753,7 +21025,10 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="420" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B420" s="1" t="s">
         <v>2382</v>
       </c>
@@ -19779,7 +21054,10 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="421" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B421" s="1" t="s">
         <v>2388</v>
       </c>
@@ -19805,7 +21083,10 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="422" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B422" s="1" t="s">
         <v>2394</v>
       </c>
@@ -19831,7 +21112,10 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="423" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B423" s="1" t="s">
         <v>2400</v>
       </c>
@@ -19857,7 +21141,10 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="424" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B424" s="1" t="s">
         <v>2405</v>
       </c>
@@ -19883,7 +21170,10 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="425" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B425" s="1" t="s">
         <v>2411</v>
       </c>
@@ -19909,7 +21199,10 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="426" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B426" s="1" t="s">
         <v>2416</v>
       </c>
@@ -19935,7 +21228,10 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="427" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B427" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19961,7 +21257,10 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="428" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B428" s="1" t="s">
         <v>1014</v>
       </c>
@@ -19987,7 +21286,10 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="429" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B429" s="1" t="s">
         <v>2430</v>
       </c>
@@ -20013,7 +21315,10 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="430" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B430" s="1" t="s">
         <v>2435</v>
       </c>
@@ -20039,7 +21344,10 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="431" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B431" s="1" t="s">
         <v>2441</v>
       </c>
@@ -20065,7 +21373,10 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="432" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B432" s="1" t="s">
         <v>2446</v>
       </c>
@@ -20091,7 +21402,10 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="433" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B433" s="1" t="s">
         <v>2452</v>
       </c>
@@ -20117,7 +21431,10 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="434" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B434" s="1" t="s">
         <v>2458</v>
       </c>
@@ -20143,7 +21460,10 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="435" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B435" s="1" t="s">
         <v>2462</v>
       </c>
@@ -20169,7 +21489,10 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="436" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B436" s="1" t="s">
         <v>2466</v>
       </c>
@@ -20195,7 +21518,10 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="437" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B437" s="1" t="s">
         <v>2472</v>
       </c>
@@ -20221,7 +21547,10 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="438" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B438" s="1" t="s">
         <v>2478</v>
       </c>
@@ -20247,7 +21576,10 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="439" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B439" s="1" t="s">
         <v>2484</v>
       </c>
@@ -20273,7 +21605,10 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="440" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B440" s="1" t="s">
         <v>2488</v>
       </c>
@@ -20299,7 +21634,10 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="441" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B441" s="1" t="s">
         <v>2118</v>
       </c>
@@ -20325,7 +21663,10 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="442" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B442" s="1" t="s">
         <v>2499</v>
       </c>
@@ -20351,7 +21692,10 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="443" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B443" s="1" t="s">
         <v>2503</v>
       </c>
@@ -20377,7 +21721,10 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="444" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B444" s="1" t="s">
         <v>2509</v>
       </c>
@@ -20403,7 +21750,10 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="445" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B445" s="1" t="s">
         <v>2515</v>
       </c>
@@ -20429,7 +21779,10 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="446" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B446" s="1" t="s">
         <v>2520</v>
       </c>
@@ -20455,7 +21808,10 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="447" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B447" s="1" t="s">
         <v>2526</v>
       </c>
@@ -20481,7 +21837,10 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="448" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B448" s="1" t="s">
         <v>2532</v>
       </c>
@@ -20507,7 +21866,10 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="449" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B449" s="1" t="s">
         <v>2538</v>
       </c>
@@ -20533,7 +21895,10 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="450" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B450" s="1" t="s">
         <v>2544</v>
       </c>
@@ -20559,7 +21924,10 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="451" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B451" s="1" t="s">
         <v>2550</v>
       </c>
@@ -20585,7 +21953,10 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="452" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B452" s="1" t="s">
         <v>2555</v>
       </c>
@@ -20611,7 +21982,10 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="453" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B453" s="1" t="s">
         <v>2562</v>
       </c>
@@ -20637,7 +22011,10 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="454" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B454" s="1" t="s">
         <v>2568</v>
       </c>
@@ -20663,7 +22040,10 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="455" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B455" s="1" t="s">
         <v>2573</v>
       </c>
@@ -20689,7 +22069,10 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="456" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B456" s="1" t="s">
         <v>2579</v>
       </c>
@@ -20715,7 +22098,10 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="457" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B457" s="1" t="s">
         <v>2585</v>
       </c>
@@ -20741,7 +22127,10 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="458" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B458" s="1" t="s">
         <v>2591</v>
       </c>
@@ -20767,7 +22156,10 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="459" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B459" s="1" t="s">
         <v>2596</v>
       </c>
@@ -20793,7 +22185,10 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="460" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B460" s="1" t="s">
         <v>2601</v>
       </c>
@@ -20819,7 +22214,10 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="461" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B461" s="1" t="s">
         <v>2607</v>
       </c>
@@ -20845,7 +22243,10 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="462" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B462" s="1" t="s">
         <v>2612</v>
       </c>
@@ -20871,7 +22272,10 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="463" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B463" s="1" t="s">
         <v>2618</v>
       </c>
@@ -20897,7 +22301,10 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="464" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B464" s="1" t="s">
         <v>2133</v>
       </c>
@@ -20923,7 +22330,10 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="465" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B465" s="1" t="s">
         <v>2627</v>
       </c>
@@ -20949,7 +22359,10 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="466" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B466" s="1" t="s">
         <v>2631</v>
       </c>
@@ -20975,7 +22388,10 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="467" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B467" s="1" t="s">
         <v>2637</v>
       </c>
@@ -21001,7 +22417,10 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="468" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B468" s="1" t="s">
         <v>2643</v>
       </c>
@@ -21027,7 +22446,10 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="469" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B469" s="1" t="s">
         <v>2649</v>
       </c>
@@ -21053,7 +22475,10 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="470" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B470" s="1" t="s">
         <v>2656</v>
       </c>
@@ -21079,7 +22504,10 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="471" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B471" s="1" t="s">
         <v>2662</v>
       </c>
@@ -21105,7 +22533,10 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="472" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B472" s="1" t="s">
         <v>2668</v>
       </c>
@@ -21131,7 +22562,10 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="473" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B473" s="1" t="s">
         <v>2672</v>
       </c>
@@ -21157,7 +22591,10 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="474" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B474" s="1" t="s">
         <v>2678</v>
       </c>
@@ -21183,7 +22620,10 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="475" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B475" s="1" t="s">
         <v>2684</v>
       </c>
@@ -21209,7 +22649,10 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="476" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B476" s="1" t="s">
         <v>2690</v>
       </c>
@@ -21235,7 +22678,10 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="477" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B477" s="1" t="s">
         <v>2696</v>
       </c>
@@ -21261,7 +22707,10 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="478" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B478" s="1" t="s">
         <v>702</v>
       </c>
@@ -21287,7 +22736,10 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="479" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B479" s="1" t="s">
         <v>2706</v>
       </c>
@@ -21313,7 +22765,10 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="480" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B480" s="1" t="s">
         <v>2712</v>
       </c>
@@ -21339,7 +22794,10 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="481" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B481" s="1" t="s">
         <v>2717</v>
       </c>
@@ -21365,7 +22823,10 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="482" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B482" s="1" t="s">
         <v>2721</v>
       </c>
@@ -21391,7 +22852,10 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="483" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B483" s="1" t="s">
         <v>2727</v>
       </c>
@@ -21417,7 +22881,10 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="484" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B484" s="1" t="s">
         <v>2733</v>
       </c>
@@ -21443,7 +22910,10 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="485" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B485" s="1" t="s">
         <v>2737</v>
       </c>
@@ -21469,7 +22939,10 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="486" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B486" s="1" t="s">
         <v>2742</v>
       </c>
@@ -21495,7 +22968,10 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="487" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B487" s="1" t="s">
         <v>2746</v>
       </c>
@@ -21521,7 +22997,10 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="488" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B488" s="1" t="s">
         <v>2752</v>
       </c>
@@ -21547,7 +23026,10 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="489" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B489" s="1" t="s">
         <v>2214</v>
       </c>
@@ -21573,7 +23055,10 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="490" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B490" s="1" t="s">
         <v>2762</v>
       </c>
@@ -21599,7 +23084,10 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="491" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B491" s="1" t="s">
         <v>2768</v>
       </c>
@@ -21625,7 +23113,10 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="492" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B492" s="1" t="s">
         <v>2773</v>
       </c>
@@ -21651,7 +23142,10 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="493" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B493" s="1" t="s">
         <v>2777</v>
       </c>
@@ -21677,7 +23171,10 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="494" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B494" s="1" t="s">
         <v>2782</v>
       </c>
@@ -21703,7 +23200,10 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="495" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B495" s="1" t="s">
         <v>2788</v>
       </c>
@@ -21729,7 +23229,10 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="496" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B496" s="1" t="s">
         <v>542</v>
       </c>
@@ -21755,7 +23258,10 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="497" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B497" s="1" t="s">
         <v>2800</v>
       </c>
@@ -21781,7 +23287,10 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="498" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B498" s="1" t="s">
         <v>2805</v>
       </c>
@@ -21807,7 +23316,10 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="499" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B499" s="1" t="s">
         <v>2811</v>
       </c>
@@ -21833,7 +23345,10 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="500" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B500" s="1" t="s">
         <v>2817</v>
       </c>
@@ -21859,7 +23374,10 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="501" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="5" t="s">
+        <v>2828</v>
+      </c>
       <c r="B501" s="1" t="s">
         <v>2822</v>
       </c>
@@ -21890,5 +23408,6 @@
     <hyperlink ref="B32" r:id="rId1" location="gid=1523078319"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>